--- a/data/trans_camb/P31_4_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P31_4_R-Edad-trans_camb.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,15 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +547,27 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +584,67 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -587,6 +657,15 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,32 +680,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>5,0</t>
+          <t>4,9</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-12,82</t>
+          <t>-13,4</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-2,58</t>
+          <t>-10,95</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-4,94</t>
+          <t>3,79</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>1,44</t>
+          <t>-3,37</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-8,64</t>
+          <t>-2,36</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>-4,7</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>-1,51</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>-1,06</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>1,5</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>1,49</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>-8,81</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>-5,73</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>0,69</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>-0,96</t>
         </is>
       </c>
     </row>
@@ -639,32 +763,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-3,78; 13,22</t>
+          <t>-2,89; 12,72</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-23,14; -1,58</t>
+          <t>-23,19; -2,31</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-6,74; 1,01</t>
+          <t>-23,24; -1,09</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-9,79; -1,03</t>
+          <t>-9,27; 16,7</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-3,35; 6,62</t>
+          <t>-14,57; 9,12</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-14,71; -1,67</t>
+          <t>-6,31; 1,56</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-9,39; -0,06</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-6,15; 2,64</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-6,24; 4,38</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-4,01; 8,14</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-3,14; 6,07</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-15,09; -2,56</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>-12,41; -0,02</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>-6,78; 7,71</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>-8,24; 5,73</t>
         </is>
       </c>
     </row>
@@ -677,32 +846,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>5,98%</t>
+          <t>5,83%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-15,34%</t>
+          <t>-15,94%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-2,65%</t>
+          <t>-13,03%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-5,07%</t>
+          <t>5,19%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>1,6%</t>
+          <t>-4,2%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-9,57%</t>
+          <t>-2,43%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>-4,83%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>-1,55%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>-1,1%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>1,61%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>1,65%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>-9,74%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>-6,34%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>0,81%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>-1,12%</t>
         </is>
       </c>
     </row>
@@ -715,32 +929,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-4,21; 16,95</t>
+          <t>-3,17; 16,14</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-27,13; -2,04</t>
+          <t>-26,74; -2,92</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-6,85; 1,0</t>
+          <t>-26,58; -1,28</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-9,97; -1,11</t>
+          <t>-11,85; 24,82</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-3,58; 7,57</t>
+          <t>-17,57; 12,12</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-16,04; -1,93</t>
+          <t>-6,49; 1,64</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-9,58; -0,18</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-6,33; 2,75</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-6,44; 4,72</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-4,2; 9,24</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-3,38; 6,97</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-16,43; -3,07</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>-13,49; -0,04</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>-7,62; 9,74</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>-9,35; 6,83</t>
         </is>
       </c>
     </row>
@@ -757,32 +1016,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-1,18</t>
+          <t>-1,44</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-5,27</t>
+          <t>-5,06</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,03</t>
+          <t>-3,41</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,51</t>
+          <t>5,18</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-0,16</t>
+          <t>7,58</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-2,6</t>
+          <t>1,16</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>0,56</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>-1,7</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>2,59</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>1,98</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>-0,22</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>-2,47</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>-2,74</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>4,27</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>4,93</t>
         </is>
       </c>
     </row>
@@ -795,32 +1099,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-7,4; 4,54</t>
+          <t>-8,76; 4,25</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-11,93; 1,37</t>
+          <t>-13,16; 1,47</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,11; 4,22</t>
+          <t>-10,72; 4,19</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,34; 4,58</t>
+          <t>-2,77; 12,65</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-3,65; 3,56</t>
+          <t>-0,57; 16,95</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-6,64; 1,26</t>
+          <t>-1,66; 4,85</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-2,39; 3,89</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-8,69; 2,1</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-1,22; 9,7</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-1,69; 5,93</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-3,73; 3,66</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-6,45; 1,14</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>-8,29; 1,26</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>-0,38; 9,42</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>0,31; 9,67</t>
         </is>
       </c>
     </row>
@@ -833,32 +1182,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-1,3%</t>
+          <t>-1,59%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-5,8%</t>
+          <t>-5,58%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>1,06%</t>
+          <t>-3,77%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,53%</t>
+          <t>5,94%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-0,17%</t>
+          <t>8,93%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-2,78%</t>
+          <t>1,2%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>0,57%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>-1,76%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>2,73%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>2,07%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>-0,23%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>-2,65%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>-2,93%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>4,7%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>5,47%</t>
         </is>
       </c>
     </row>
@@ -871,32 +1265,77 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-7,93; 5,16</t>
+          <t>-9,34; 4,77</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-12,83; 1,58</t>
+          <t>-13,96; 1,75</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-2,16; 4,52</t>
+          <t>-11,49; 4,65</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-2,39; 4,9</t>
+          <t>-3,02; 15,53</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-3,85; 3,87</t>
+          <t>-0,51; 22,07</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-7,02; 1,38</t>
+          <t>-1,69; 5,16</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-2,41; 4,13</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-8,88; 2,2</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-1,25; 10,81</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-1,74; 6,44</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-3,93; 4,02</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-6,81; 1,22</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>-8,62; 1,34</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>-0,4; 10,99</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>0,35; 11,2</t>
         </is>
       </c>
     </row>
@@ -913,32 +1352,77 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,12</t>
+          <t>0,62</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-3,1</t>
+          <t>-2,22</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>2,67</t>
+          <t>-1,73</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,27</t>
+          <t>5,31</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>1,46</t>
+          <t>4,74</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-1,34</t>
+          <t>2,73</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>0,3</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>0,73</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>0,32</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>0,08</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>1,69</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>-0,94</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>-0,49</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>2,62</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>2,53</t>
         </is>
       </c>
     </row>
@@ -951,32 +1435,77 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-4,77; 5,49</t>
+          <t>-4,61; 5,9</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-9,27; 2,84</t>
+          <t>-7,8; 3,12</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,46; 6,03</t>
+          <t>-12,12; 4,46</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-2,8; 3,62</t>
+          <t>-0,95; 14,55</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-1,51; 4,51</t>
+          <t>-0,5; 10,57</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-4,58; 1,99</t>
+          <t>0,51; 6,32</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-2,46; 3,53</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-1,98; 4,05</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-2,95; 2,93</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-3,09; 3,12</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-0,99; 4,74</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-4,02; 2,28</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>-6,45; 2,77</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>-0,57; 8,34</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>-1,0; 5,85</t>
         </is>
       </c>
     </row>
@@ -989,32 +1518,77 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,13%</t>
+          <t>0,68%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-3,43%</t>
+          <t>-2,46%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>2,77%</t>
+          <t>-1,93%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,28%</t>
+          <t>6,03%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>1,56%</t>
+          <t>5,34%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-1,44%</t>
+          <t>2,84%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>0,31%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>0,76%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>0,33%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>0,08%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>1,82%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>-1,01%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>-0,52%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>2,83%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>2,72%</t>
         </is>
       </c>
     </row>
@@ -1027,32 +1601,77 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-5,14; 6,3</t>
+          <t>-4,98; 6,83</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-10,06; 3,21</t>
+          <t>-8,55; 3,57</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,47; 6,43</t>
+          <t>-13,28; 5,06</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-2,87; 3,88</t>
+          <t>-1,14; 17,97</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-1,59; 4,92</t>
+          <t>-0,5; 12,6</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-4,85; 2,17</t>
+          <t>0,52; 6,84</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-2,51; 3,77</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-2,02; 4,33</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>-2,99; 3,09</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>-3,15; 3,26</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-1,04; 5,23</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-4,25; 2,48</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>-6,84; 3,01</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>-0,61; 9,56</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>-1,06; 6,4</t>
         </is>
       </c>
     </row>
@@ -1069,32 +1688,77 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>2,32</t>
+          <t>2,21</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,49</t>
+          <t>0,22</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>1,14</t>
+          <t>0,8</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>2,06</t>
+          <t>2,05</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>1,69</t>
+          <t>0,95</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>1,25</t>
+          <t>0,55</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>1,29</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>1,1</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>0,79</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>0,91</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>1,36</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>0,75</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>0,93</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>1,31</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>0,97</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1771,77 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,75; 6,98</t>
+          <t>-2,15; 6,45</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-4,4; 4,9</t>
+          <t>-4,39; 5,21</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,68; 5,67</t>
+          <t>-4,15; 5,72</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-0,54; 6,81</t>
+          <t>-2,38; 6,55</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-0,91; 4,7</t>
+          <t>-3,71; 4,95</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-1,62; 4,58</t>
+          <t>-1,68; 2,87</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-0,62; 3,54</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>-1,19; 3,52</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>-0,85; 2,46</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>-0,7; 2,97</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-0,99; 3,99</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>-1,96; 3,26</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>-1,78; 3,59</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>-1,44; 3,58</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>-1,51; 3,27</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1854,77 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>2,52%</t>
+          <t>2,4%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>0,53%</t>
+          <t>0,24%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>1,18%</t>
+          <t>0,87%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>2,14%</t>
+          <t>2,2%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>1,79%</t>
+          <t>1,01%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
+          <t>0,57%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
           <t>1,32%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>1,13%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>0,8%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>0,93%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>1,43%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>0,79%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>0,98%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>1,37%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>1,0%</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1937,77 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-1,83; 7,94</t>
+          <t>-2,28; 7,29</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-4,7; 5,42</t>
+          <t>-4,69; 5,84</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-1,72; 6,12</t>
+          <t>-4,4; 6,47</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-0,55; 7,4</t>
+          <t>-2,51; 7,24</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-0,91; 5,12</t>
+          <t>-3,86; 5,42</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-1,68; 4,98</t>
+          <t>-1,69; 3,02</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>-0,63; 3,7</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>-1,2; 3,74</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>-0,85; 2,54</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>-0,7; 3,08</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>-1,06; 4,32</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>-2,05; 3,47</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>-1,86; 3,85</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>-1,48; 3,82</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>-1,55; 3,47</t>
         </is>
       </c>
     </row>
@@ -1225,32 +2024,77 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>1,05</t>
+          <t>0,93</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>2,02</t>
+          <t>2,04</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>1,86</t>
+          <t>-0,84</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>1,5</t>
+          <t>3,49</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>1,41</t>
+          <t>0,7</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>1,75</t>
+          <t>1,62</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>1,21</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>1,48</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>0,35</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>-0,11</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>1,23</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>1,61</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>0,33</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>1,9</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>0,25</t>
         </is>
       </c>
     </row>
@@ -1263,32 +2107,77 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-5,41; 4,96</t>
+          <t>-6,62; 4,73</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-1,2; 5,59</t>
+          <t>-1,24; 5,82</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-0,36; 6,29</t>
+          <t>-7,04; 3,55</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-0,75; 7,29</t>
+          <t>-0,11; 10,37</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-1,78; 4,13</t>
+          <t>-2,74; 4,26</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-0,45; 4,44</t>
+          <t>-0,33; 5,66</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-0,82; 5,35</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-0,53; 5,53</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>-1,58; 1,88</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>-1,72; 0,85</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>-2,29; 3,78</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>-0,23; 4,21</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>-3,74; 2,81</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>-0,34; 5,25</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>-1,49; 1,93</t>
         </is>
       </c>
     </row>
@@ -1301,32 +2190,77 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>1,1%</t>
+          <t>0,98%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>2,12%</t>
+          <t>2,14%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>1,91%</t>
+          <t>-0,89%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>1,54%</t>
+          <t>3,7%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>1,47%</t>
+          <t>0,72%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>1,82%</t>
+          <t>1,66%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>1,24%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>1,51%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>0,36%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>-0,11%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>1,28%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>1,67%</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>0,34%</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>1,97%</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>0,26%</t>
         </is>
       </c>
     </row>
@@ -1339,32 +2273,77 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-5,56; 5,34</t>
+          <t>-6,82; 5,08</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-1,23; 6,03</t>
+          <t>-1,26; 6,29</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-0,36; 6,73</t>
+          <t>-7,31; 3,77</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-0,76; 7,87</t>
+          <t>-0,12; 11,62</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-1,8; 4,38</t>
+          <t>-2,72; 4,57</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-0,46; 4,74</t>
+          <t>-0,33; 6,02</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-0,82; 5,73</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-0,54; 5,9</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>-1,58; 1,93</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>-1,73; 0,85</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>-2,33; 3,99</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>-0,23; 4,44</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>-3,83; 2,95</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>-0,35; 5,6</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>-1,5; 1,99</t>
         </is>
       </c>
     </row>
@@ -1381,32 +2360,77 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>2,16</t>
+          <t>1,69</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
+          <t>-0,26</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>-0,09</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>0,37</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>0,41</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>-0,8</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>-0,39</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
           <t>0,28</t>
         </is>
       </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>-0,73</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>-0,33</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>0,52</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>-0,07</t>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>-0,34</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>-0,05</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>0,21</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>0,19</t>
         </is>
       </c>
     </row>
@@ -1419,32 +2443,77 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>0,23; 6,24</t>
+          <t>-0,03; 4,74</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-2,97; 3,61</t>
+          <t>-3,71; 2,58</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-2,44; 0,0</t>
+          <t>-3,58; 2,98</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-1,78; 0,0</t>
+          <t>-2,5; 3,86</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-0,53; 2,18</t>
+          <t>-2,59; 3,31</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-1,42; 1,46</t>
+          <t>-2,88; 0,0</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>-2,1; 0,0</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>-0,79; 1,44</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>-1,74; 0,93</t>
+        </is>
+      </c>
+      <c r="O25" s="2" t="inlineStr">
+        <is>
+          <t>-1,67; 1,24</t>
+        </is>
+      </c>
+      <c r="P25" s="2" t="inlineStr">
+        <is>
+          <t>-1,0; 1,77</t>
+        </is>
+      </c>
+      <c r="Q25" s="2" t="inlineStr">
+        <is>
+          <t>-1,06; 1,4</t>
         </is>
       </c>
     </row>
@@ -1457,32 +2526,77 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>2,22%</t>
+          <t>1,73%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>0,29%</t>
+          <t>-0,27%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>-0,73%</t>
+          <t>-0,09%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>-0,33%</t>
+          <t>0,38%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>0,53%</t>
+          <t>0,42%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>-0,07%</t>
+          <t>-0,8%</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>-0,39%</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>0,28%</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>-0,34%</t>
+        </is>
+      </c>
+      <c r="O26" s="2" t="inlineStr">
+        <is>
+          <t>-0,05%</t>
+        </is>
+      </c>
+      <c r="P26" s="2" t="inlineStr">
+        <is>
+          <t>0,21%</t>
+        </is>
+      </c>
+      <c r="Q26" s="2" t="inlineStr">
+        <is>
+          <t>0,19%</t>
         </is>
       </c>
     </row>
@@ -1495,32 +2609,77 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>0,24; 6,7</t>
+          <t>0,0; 5,04</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-3,0; 3,78</t>
+          <t>-3,75; 2,69</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-2,44; 0,0</t>
+          <t>-3,63; 3,06</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-1,78; 0,0</t>
+          <t>-2,5; 4,09</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-0,53; 2,24</t>
+          <t>-2,62; 3,43</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-1,44; 1,49</t>
+          <t>-2,88; 0,0</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>-2,1; 0,0</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>-0,8; 1,47</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>-1,75; 0,95</t>
+        </is>
+      </c>
+      <c r="O27" s="2" t="inlineStr">
+        <is>
+          <t>-1,68; 1,26</t>
+        </is>
+      </c>
+      <c r="P27" s="2" t="inlineStr">
+        <is>
+          <t>-1,0; 1,81</t>
+        </is>
+      </c>
+      <c r="Q27" s="2" t="inlineStr">
+        <is>
+          <t>-1,06; 1,42</t>
         </is>
       </c>
     </row>
@@ -1537,32 +2696,77 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>1,45</t>
+          <t>1,37</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>-2,99</t>
+          <t>-3,04</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
+          <t>-2,22</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>3,2</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>2,0</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>0,51</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>-0,22</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>0,13</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>0,51</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
           <t>0,62</t>
         </is>
       </c>
-      <c r="F28" s="2" t="inlineStr">
-        <is>
-          <t>-0,05</t>
-        </is>
-      </c>
-      <c r="G28" s="2" t="inlineStr">
-        <is>
-          <t>1,02</t>
-        </is>
-      </c>
-      <c r="H28" s="2" t="inlineStr">
-        <is>
-          <t>-1,5</t>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>0,93</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>-1,6</t>
+        </is>
+      </c>
+      <c r="O28" s="2" t="inlineStr">
+        <is>
+          <t>-1,03</t>
+        </is>
+      </c>
+      <c r="P28" s="2" t="inlineStr">
+        <is>
+          <t>1,81</t>
+        </is>
+      </c>
+      <c r="Q28" s="2" t="inlineStr">
+        <is>
+          <t>1,33</t>
         </is>
       </c>
     </row>
@@ -1575,32 +2779,77 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-0,76; 3,75</t>
+          <t>-0,9; 3,66</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-5,53; -0,38</t>
+          <t>-6,0; -0,56</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-0,37; 2,03</t>
+          <t>-5,37; 0,68</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-1,33; 1,23</t>
+          <t>-0,07; 5,86</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-0,21; 2,28</t>
+          <t>-0,95; 4,42</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-2,92; 0,04</t>
+          <t>-0,58; 1,59</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>-1,39; 0,91</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>-1,11; 1,39</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>-0,52; 1,73</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>-0,53; 1,8</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>-0,39; 2,24</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>-3,01; -0,18</t>
+        </is>
+      </c>
+      <c r="O29" s="2" t="inlineStr">
+        <is>
+          <t>-2,71; 0,5</t>
+        </is>
+      </c>
+      <c r="P29" s="2" t="inlineStr">
+        <is>
+          <t>0,3; 3,61</t>
+        </is>
+      </c>
+      <c r="Q29" s="2" t="inlineStr">
+        <is>
+          <t>-0,25; 2,76</t>
         </is>
       </c>
     </row>
@@ -1613,32 +2862,77 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>1,58%</t>
+          <t>1,49%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>-3,27%</t>
+          <t>-3,32%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>0,64%</t>
+          <t>-2,43%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>-0,06%</t>
+          <t>3,58%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>1,08%</t>
+          <t>2,21%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>-1,58%</t>
+          <t>0,52%</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>-0,23%</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>0,14%</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>0,53%</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>0,63%</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>0,98%</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>-1,69%</t>
+        </is>
+      </c>
+      <c r="O30" s="2" t="inlineStr">
+        <is>
+          <t>-1,08%</t>
+        </is>
+      </c>
+      <c r="P30" s="2" t="inlineStr">
+        <is>
+          <t>1,93%</t>
+        </is>
+      </c>
+      <c r="Q30" s="2" t="inlineStr">
+        <is>
+          <t>1,41%</t>
         </is>
       </c>
     </row>
@@ -1651,32 +2945,84 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-0,82; 4,15</t>
+          <t>-0,98; 4,04</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-5,94; -0,42</t>
+          <t>-6,45; -0,61</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-0,38; 2,11</t>
+          <t>-5,8; 0,73</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-1,36; 1,27</t>
+          <t>-0,08; 6,65</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-0,22; 2,44</t>
+          <t>-1,02; 4,99</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-3,08; 0,04</t>
+          <t>-0,6; 1,63</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>-1,42; 0,94</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>-1,14; 1,44</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>-0,53; 1,79</t>
+        </is>
+      </c>
+      <c r="L31" s="2" t="inlineStr">
+        <is>
+          <t>-0,54; 1,86</t>
+        </is>
+      </c>
+      <c r="M31" s="2" t="inlineStr">
+        <is>
+          <t>-0,41; 2,39</t>
+        </is>
+      </c>
+      <c r="N31" s="2" t="inlineStr">
+        <is>
+          <t>-3,16; -0,2</t>
+        </is>
+      </c>
+      <c r="O31" s="2" t="inlineStr">
+        <is>
+          <t>-2,84; 0,54</t>
+        </is>
+      </c>
+      <c r="P31" s="2" t="inlineStr">
+        <is>
+          <t>0,32; 3,9</t>
+        </is>
+      </c>
+      <c r="Q31" s="2" t="inlineStr">
+        <is>
+          <t>-0,26; 2,96</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
@@ -1684,15 +3030,15 @@
   <mergeCells count="11">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="C1:G1"/>
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A20:A23"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="M1:Q1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
